--- a/biology/Écologie/Indice_de_Sørensen-Dice/Indice_de_Sørensen-Dice.xlsx
+++ b/biology/Écologie/Indice_de_Sørensen-Dice/Indice_de_Sørensen-Dice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice de Sørensen-Dice, connu aussi sous les noms d'indice de Sørensen, coefficient de Dice et d'autres noms encore) est un indicateur statistique qui mesure la similarité de deux échantillons. Il a été développé indépendamment par les botanistes Thorvald Sørensen[1] et Lee Raymond Dice[2] dans des articles publiés en 1948 et 1945 respectivement.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice de Sørensen-Dice, connu aussi sous les noms d'indice de Sørensen, coefficient de Dice et d'autres noms encore) est un indicateur statistique qui mesure la similarité de deux échantillons. Il a été développé indépendamment par les botanistes Thorvald Sørensen et Lee Raymond Dice dans des articles publiés en 1948 et 1945 respectivement.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Noms et variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'indice est connu sous divers autres noms : le plus souvent reviennent indice de Sørensen ou coefficient de Dice[3] ; les deux noms se voient aussi avec le qualificatif « coefficient de similarité » ou « indice » ou autres variations, et le nom « Sørensen » est orthographié avec diverses variations, comme « Sorenson », « Soerenson » ou « Sörenson », et dans chaque cas le suffixe peut être remplacé par « –sen ». On trouve également le nom indice binaire de Czekanowski[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'indice est connu sous divers autres noms : le plus souvent reviennent indice de Sørensen ou coefficient de Dice ; les deux noms se voient aussi avec le qualificatif « coefficient de similarité » ou « indice » ou autres variations, et le nom « Sørensen » est orthographié avec diverses variations, comme « Sorenson », « Soerenson » ou « Sörenson », et dans chaque cas le suffixe peut être remplacé par « –sen ». On trouve également le nom indice binaire de Czekanowski.
 L'indice mesure la présence ou l’absence d'espèces. On peut étendre l'expression à la mesure de l'abondance au sens écologique du terme. Des versions quantitatives sont connues sous divers noms :
-Indice quantitatif de Sørensen-Dice, de Sørensen, de Dice[4],
-Distance de Bray-Curtis (l'opposée de la  dissimilarité de Bray-Curtis)[4],
-Indice quantitatif de Czekanowski, de Steinhaus[4],
-Similarité en pourcentage de Pielou[4],
-L'opposée de la distance de Hellinger[5].</t>
+Indice quantitatif de Sørensen-Dice, de Sørensen, de Dice,
+Distance de Bray-Curtis (l'opposée de la  dissimilarité de Bray-Curtis),
+Indice quantitatif de Czekanowski, de Steinhaus,
+Similarité en pourcentage de Pielou,
+L'opposée de la distance de Hellinger.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour des ensembles finis quelconques X et Y, l'indice s'exprime par :
         s
@@ -587,7 +603,7 @@
                 |
     {\displaystyle s_{v}={\frac {2|X\cdot Y|}{|X|+|Y|}}}
 .
-Dans le domaine de la recherche d'informations, le coefficient peut être vu comme le double de l'information partagée, rapportée à la somme des cardinalités[6]. Le coefficient peut aussi être utilisé comme une mesure de similarité entre chaînes de caractères. Étant donnés deux chaînes x et y, on peut calculer le coefficient comme suit[7] :
+Dans le domaine de la recherche d'informations, le coefficient peut être vu comme le double de l'information partagée, rapportée à la somme des cardinalités. Le coefficient peut aussi être utilisé comme une mesure de similarité entre chaînes de caractères. Étant donnés deux chaînes x et y, on peut calculer le coefficient comme suit :
         s
         =
               2
@@ -629,7 +645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,7 +663,9 @@
           <t>Différence avec l'indice de Jaccard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coefficient n'est pas très différent, dans sa forme, de l'indice de Jaccard qui est
                 |
@@ -662,7 +680,7 @@
                 |
     {\displaystyle {\frac {|X\cap Y|}{|X\cup Y|}}}
 .
-Toutefois, il ne vérifie  pas l'inégalité triangulaire, et il ne peut être vu que comme une version  « semi-métrique » de l'indice de Jaccard[4]. Contrairement à l’indice de Jaccard, la fonction 
+Toutefois, il ne vérifie  pas l'inégalité triangulaire, et il ne peut être vu que comme une version  « semi-métrique » de l'indice de Jaccard. Contrairement à l’indice de Jaccard, la fonction 
         d
         =
         1
@@ -692,7 +710,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -710,10 +728,12 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coefficient de  Sørensen-Dice est utilisé pour les données rencontrées dans la communauté écologique[8]. La raison de cet usage est plutôt empirique que théorique, même s'il peut être justifié théoriquement comme intersection de deux ensembles flous[9]. En comparaison avec la distance euclidienne, la distance de Sørensen est fine dans les ensembles hétérogènes de données, et donne moins de poids aux  cas déviants[10]. Le coefficient de Dice et ses variantes trouvent un usage en lexicographie infographique, où il intervient dans la mesure du score d'association lexicale de deux mots[11],[12].
-Le coefficient est également utilisé pour mesurer les performances d'algorithmes de segmentation d'images, notamment médicales[13],[14]. Il permet de calculer une mesure du recouvrement entre la réponse de l'algorithme et le résultat attendu. Le calcul de l'indice de Sørensen-Dice est dans ce cas analogue au calcul du F-score[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coefficient de  Sørensen-Dice est utilisé pour les données rencontrées dans la communauté écologique. La raison de cet usage est plutôt empirique que théorique, même s'il peut être justifié théoriquement comme intersection de deux ensembles flous. En comparaison avec la distance euclidienne, la distance de Sørensen est fine dans les ensembles hétérogènes de données, et donne moins de poids aux  cas déviants. Le coefficient de Dice et ses variantes trouvent un usage en lexicographie infographique, où il intervient dans la mesure du score d'association lexicale de deux mots,.
+Le coefficient est également utilisé pour mesurer les performances d'algorithmes de segmentation d'images, notamment médicales,. Il permet de calculer une mesure du recouvrement entre la réponse de l'algorithme et le résultat attendu. Le calcul de l'indice de Sørensen-Dice est dans ce cas analogue au calcul du F-score.
 </t>
         </is>
       </c>
@@ -724,7 +744,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Indice_de_S%C3%B8rensen-Dice</t>
+          <t>Indice_de_Sørensen-Dice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -742,7 +762,9 @@
           <t>Articles liés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Corrélation
 Indice et distance de Jaccard
